--- a/notebook/validate_cis_display/confirm_cis_display_with_fluorescent_protein/yfp_candidates.xlsx
+++ b/notebook/validate_cis_display/confirm_cis_display_with_fluorescent_protein/yfp_candidates.xlsx
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -140,16 +140,6 @@
     </font>
     <font>
       <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
-      <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
-    </font>
-    <font>
-      <b val="0"/>
       <i val="0"/>
       <u val="none"/>
       <color rgb="FF000000"/>
@@ -186,29 +176,17 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -219,85 +197,85 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A14" sqref="A14:R20"/>
+      <selection activeCell="A1" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" style="0" width="15.856189903846156" customWidth="1"/>
-    <col min="2" max="2" style="1" width="9.142307692307693"/>
+    <col min="2" max="2" style="0" width="9.142307692307693"/>
     <col min="3" max="3" style="0" width="13.427764423076924" customWidth="1"/>
     <col min="4" max="5" style="0" width="11.713581730769231" customWidth="1"/>
     <col min="6" max="6" style="0" width="12.42782451923077" customWidth="1"/>
-    <col min="7" max="7" style="2" width="9.99939903846154" customWidth="1"/>
-    <col min="8" max="8" style="2" width="10.713641826923078" customWidth="1"/>
-    <col min="9" max="9" style="2" width="9.142307692307693" customWidth="1"/>
-    <col min="10" max="10" style="2" width="9.713701923076924" customWidth="1"/>
-    <col min="11" max="11" style="2" width="6.571033653846155" customWidth="1"/>
-    <col min="12" max="12" style="2" width="13.999158653846155" customWidth="1"/>
-    <col min="13" max="13" style="2" width="6.999579326923078" customWidth="1"/>
-    <col min="14" max="14" style="2" width="15.999038461538463" customWidth="1"/>
-    <col min="15" max="15" style="2" width="11.28503605769231" customWidth="1"/>
-    <col min="16" max="16" style="2" width="18.427463942307693" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" style="0" width="9.99939903846154" customWidth="1"/>
+    <col min="8" max="8" style="0" width="10.713641826923078" customWidth="1"/>
+    <col min="9" max="9" style="0" width="9.142307692307693" customWidth="1"/>
+    <col min="10" max="10" style="0" width="9.713701923076924" customWidth="1"/>
+    <col min="11" max="11" style="0" width="6.571033653846155" customWidth="1"/>
+    <col min="12" max="12" style="0" width="13.999158653846155" customWidth="1"/>
+    <col min="13" max="13" style="0" width="6.999579326923078" customWidth="1"/>
+    <col min="14" max="14" style="0" width="15.999038461538463" customWidth="1"/>
+    <col min="15" max="15" style="0" width="11.28503605769231" customWidth="1"/>
+    <col min="16" max="16" style="0" width="18.427463942307693" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -308,16 +286,16 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>98.099999999999994</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>38.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>75.5</v>
       </c>
       <c r="G2">
@@ -326,7 +304,7 @@
       <c r="H2">
         <v>541</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
       <c r="J2">
@@ -344,8 +322,7 @@
       <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>26.91</v>
       </c>
     </row>
@@ -353,21 +330,19 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>10.199999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>58.799999999999997</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
       <c r="G3">
         <v>548</v>
       </c>
       <c r="H3">
         <v>559</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>11</v>
       </c>
       <c r="J3">
@@ -385,10 +360,10 @@
       <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>24.449999999999999</v>
       </c>
     </row>
@@ -396,21 +371,19 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>11.800000000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>61.700000000000003</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
       <c r="G4">
         <v>548</v>
       </c>
       <c r="H4">
         <v>562</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>14</v>
       </c>
       <c r="J4">
@@ -431,8 +404,7 @@
       <c r="P4">
         <v>150</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>26.739999999999998</v>
       </c>
     </row>
@@ -440,21 +412,19 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>8.4000000000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>53.600000000000001</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
       <c r="G5">
         <v>551</v>
       </c>
       <c r="H5">
         <v>563</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>12</v>
       </c>
       <c r="J5">
@@ -472,8 +442,7 @@
       <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>24.469999999999999</v>
       </c>
     </row>
@@ -484,16 +453,16 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>9.0999999999999996</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>56.200000000000003</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>16.699999999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>54.100000000000001</v>
       </c>
       <c r="G6">
@@ -502,7 +471,7 @@
       <c r="H6">
         <v>565</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>14</v>
       </c>
       <c r="J6">
@@ -523,8 +492,7 @@
       <c r="P6">
         <v>108</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>24.460000000000001</v>
       </c>
     </row>
@@ -532,21 +500,19 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>63.600000000000001</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
       <c r="G7">
         <v>549</v>
       </c>
       <c r="H7">
         <v>565</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>16</v>
       </c>
       <c r="J7">
@@ -567,10 +533,10 @@
       <c r="P7">
         <v>270</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>2.7000000000000002</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>26.82</v>
       </c>
     </row>
@@ -593,31 +559,31 @@
       <c r="F8">
         <v>47.700000000000003</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>568</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>592</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>24</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>75000</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>0.48999999999999999</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>36.75</v>
       </c>
-      <c r="M8" s="0">
+      <c r="M8">
         <v>6.5</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="0">
+      <c r="P8">
         <v>30</v>
       </c>
       <c r="Q8">
@@ -631,39 +597,37 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>5.2999999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>46.299999999999997</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>558</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>592</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>34</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>128000</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>0.45000000000000001</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>57.600000000000001</v>
       </c>
-      <c r="M9" s="0">
+      <c r="M9">
         <v>4.7999999999999998</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="0">
+      <c r="P9">
         <v>136.5</v>
       </c>
       <c r="R9">
@@ -689,31 +653,31 @@
       <c r="F10">
         <v>33.899999999999999</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>569</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>593</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>24</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>104000</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>0.54000000000000004</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>56.159999999999997</v>
       </c>
-      <c r="M10" s="0">
+      <c r="M10">
         <v>5.4000000000000004</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="0">
+      <c r="P10">
         <v>36</v>
       </c>
       <c r="Q10">
@@ -733,31 +697,31 @@
       <c r="D11">
         <v>48.600000000000001</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>569</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>594</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>25</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>100000</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>0.69999999999999996</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>70</v>
       </c>
-      <c r="M11" s="0">
+      <c r="M11">
         <v>5.2999999999999998</v>
       </c>
       <c r="N11" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="0">
+      <c r="P11">
         <v>174</v>
       </c>
       <c r="Q11">
@@ -777,31 +741,31 @@
       <c r="D12">
         <v>49.600000000000001</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>559</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>600</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>41</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>113000</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>0.38</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12">
         <v>42.939999999999998</v>
       </c>
-      <c r="M12" s="0">
+      <c r="M12">
         <v>5.2999999999999998</v>
       </c>
       <c r="N12" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="0">
+      <c r="P12">
         <v>150</v>
       </c>
       <c r="Q12">
@@ -821,31 +785,31 @@
       <c r="D13">
         <v>48.299999999999997</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>558</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>605</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>47</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>112000</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>0.34999999999999998</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>39.200000000000003</v>
       </c>
-      <c r="M13" s="0">
+      <c r="M13">
         <v>4.4000000000000004</v>
       </c>
       <c r="N13" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="0">
+      <c r="P13">
         <v>168</v>
       </c>
       <c r="Q13">
@@ -855,358 +819,17 @@
         <v>25.219999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.5">
-      <c r="A14" s="6"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="P14" s="0"/>
-    </row>
-    <row r="15" spans="1:18" ht="13.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="P15" s="0"/>
-    </row>
-    <row r="16" spans="1:18" ht="13.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="P16" s="0"/>
-    </row>
-    <row r="17" spans="1:18" ht="13.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="P17" s="0"/>
-    </row>
-    <row r="18" spans="1:18" ht="13.5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="P18" s="0"/>
-    </row>
-    <row r="19" spans="1:18" ht="13.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="P19" s="0"/>
-    </row>
-    <row r="20" spans="1:18" ht="13.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="P20" s="0"/>
-    </row>
-    <row r="21" spans="1:18" ht="13.5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="P21" s="0"/>
-    </row>
-    <row r="22" spans="1:18" ht="13.5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="P22" s="0"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="P23" s="0"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="P24" s="0"/>
-    </row>
-    <row r="65515" spans="1:18">
-      <c r="G65515" s="0"/>
-      <c r="H65515" s="0"/>
-      <c r="I65515" s="0"/>
-      <c r="J65515" s="0"/>
-      <c r="K65515" s="0"/>
-      <c r="L65515" s="0"/>
-      <c r="M65515" s="0"/>
-      <c r="P65515" s="0"/>
-    </row>
-    <row r="65516" spans="1:18">
-      <c r="G65516" s="0"/>
-      <c r="H65516" s="0"/>
-      <c r="I65516" s="0"/>
-      <c r="J65516" s="0"/>
-      <c r="K65516" s="0"/>
-      <c r="L65516" s="0"/>
-      <c r="M65516" s="0"/>
-      <c r="P65516" s="0"/>
-    </row>
-    <row r="65517" spans="1:18">
-      <c r="G65517" s="0"/>
-      <c r="H65517" s="0"/>
-      <c r="I65517" s="0"/>
-      <c r="J65517" s="0"/>
-      <c r="K65517" s="0"/>
-      <c r="L65517" s="0"/>
-      <c r="M65517" s="0"/>
-      <c r="P65517" s="0"/>
-    </row>
-    <row r="65518" spans="1:18">
-      <c r="G65518" s="0"/>
-      <c r="H65518" s="0"/>
-      <c r="I65518" s="0"/>
-      <c r="J65518" s="0"/>
-      <c r="K65518" s="0"/>
-      <c r="L65518" s="0"/>
-      <c r="M65518" s="0"/>
-      <c r="P65518" s="0"/>
-    </row>
-    <row r="65519" spans="1:18">
-      <c r="G65519" s="0"/>
-      <c r="H65519" s="0"/>
-      <c r="I65519" s="0"/>
-      <c r="J65519" s="0"/>
-      <c r="K65519" s="0"/>
-      <c r="L65519" s="0"/>
-      <c r="M65519" s="0"/>
-      <c r="P65519" s="0"/>
-    </row>
-    <row r="65520" spans="1:18">
-      <c r="G65520" s="0"/>
-      <c r="H65520" s="0"/>
-      <c r="I65520" s="0"/>
-      <c r="J65520" s="0"/>
-      <c r="K65520" s="0"/>
-      <c r="L65520" s="0"/>
-      <c r="M65520" s="0"/>
-      <c r="P65520" s="0"/>
-    </row>
-    <row r="65521" spans="1:18">
-      <c r="G65521" s="0"/>
-      <c r="H65521" s="0"/>
-      <c r="I65521" s="0"/>
-      <c r="J65521" s="0"/>
-      <c r="K65521" s="0"/>
-      <c r="L65521" s="0"/>
-      <c r="M65521" s="0"/>
-      <c r="P65521" s="0"/>
-    </row>
-    <row r="65522" spans="1:18">
-      <c r="G65522" s="0"/>
-      <c r="H65522" s="0"/>
-      <c r="I65522" s="0"/>
-      <c r="J65522" s="0"/>
-      <c r="K65522" s="0"/>
-      <c r="L65522" s="0"/>
-      <c r="M65522" s="0"/>
-      <c r="P65522" s="0"/>
-    </row>
-    <row r="65523" spans="1:18">
-      <c r="G65523" s="0"/>
-      <c r="H65523" s="0"/>
-      <c r="I65523" s="0"/>
-      <c r="J65523" s="0"/>
-      <c r="K65523" s="0"/>
-      <c r="L65523" s="0"/>
-      <c r="M65523" s="0"/>
-      <c r="P65523" s="0"/>
-    </row>
-    <row r="65524" spans="1:18">
-      <c r="G65524" s="0"/>
-      <c r="H65524" s="0"/>
-      <c r="I65524" s="0"/>
-      <c r="J65524" s="0"/>
-      <c r="K65524" s="0"/>
-      <c r="L65524" s="0"/>
-      <c r="M65524" s="0"/>
-      <c r="P65524" s="0"/>
-    </row>
-    <row r="65525" spans="1:18">
-      <c r="G65525" s="0"/>
-      <c r="H65525" s="0"/>
-      <c r="I65525" s="0"/>
-      <c r="J65525" s="0"/>
-      <c r="K65525" s="0"/>
-      <c r="L65525" s="0"/>
-      <c r="M65525" s="0"/>
-      <c r="P65525" s="0"/>
-    </row>
-    <row r="65526" spans="1:18">
-      <c r="G65526" s="0"/>
-      <c r="H65526" s="0"/>
-      <c r="I65526" s="0"/>
-      <c r="J65526" s="0"/>
-      <c r="K65526" s="0"/>
-      <c r="L65526" s="0"/>
-      <c r="M65526" s="0"/>
-      <c r="P65526" s="0"/>
-    </row>
-    <row r="65527" spans="1:18">
-      <c r="G65527" s="0"/>
-      <c r="H65527" s="0"/>
-      <c r="I65527" s="0"/>
-      <c r="J65527" s="0"/>
-      <c r="K65527" s="0"/>
-      <c r="L65527" s="0"/>
-      <c r="M65527" s="0"/>
-      <c r="P65527" s="0"/>
-    </row>
-    <row r="65528" spans="1:18">
-      <c r="G65528" s="0"/>
-      <c r="H65528" s="0"/>
-      <c r="I65528" s="0"/>
-      <c r="J65528" s="0"/>
-      <c r="K65528" s="0"/>
-      <c r="L65528" s="0"/>
-      <c r="M65528" s="0"/>
-      <c r="P65528" s="0"/>
-    </row>
-    <row r="65529" spans="1:18">
-      <c r="G65529" s="0"/>
-      <c r="H65529" s="0"/>
-      <c r="I65529" s="0"/>
-      <c r="J65529" s="0"/>
-      <c r="K65529" s="0"/>
-      <c r="L65529" s="0"/>
-      <c r="M65529" s="0"/>
-      <c r="P65529" s="0"/>
-    </row>
-    <row r="65530" spans="1:18">
-      <c r="G65530" s="0"/>
-      <c r="H65530" s="0"/>
-      <c r="I65530" s="0"/>
-      <c r="J65530" s="0"/>
-      <c r="K65530" s="0"/>
-      <c r="L65530" s="0"/>
-      <c r="M65530" s="0"/>
-      <c r="P65530" s="0"/>
-    </row>
-    <row r="65531" spans="1:18">
-      <c r="G65531" s="0"/>
-      <c r="H65531" s="0"/>
-      <c r="I65531" s="0"/>
-      <c r="J65531" s="0"/>
-      <c r="K65531" s="0"/>
-      <c r="L65531" s="0"/>
-      <c r="M65531" s="0"/>
-      <c r="P65531" s="0"/>
-    </row>
-    <row r="65532" spans="1:18">
-      <c r="G65532" s="0"/>
-      <c r="H65532" s="0"/>
-      <c r="I65532" s="0"/>
-      <c r="J65532" s="0"/>
-      <c r="K65532" s="0"/>
-      <c r="L65532" s="0"/>
-      <c r="M65532" s="0"/>
-      <c r="P65532" s="0"/>
-    </row>
-    <row r="65533" spans="1:18">
-      <c r="G65533" s="0"/>
-      <c r="H65533" s="0"/>
-      <c r="I65533" s="0"/>
-      <c r="J65533" s="0"/>
-      <c r="K65533" s="0"/>
-      <c r="L65533" s="0"/>
-      <c r="M65533" s="0"/>
-      <c r="P65533" s="0"/>
-    </row>
-    <row r="65534" spans="1:18">
-      <c r="G65534" s="0"/>
-      <c r="H65534" s="0"/>
-      <c r="I65534" s="0"/>
-      <c r="J65534" s="0"/>
-      <c r="K65534" s="0"/>
-      <c r="L65534" s="0"/>
-      <c r="M65534" s="0"/>
-      <c r="P65534" s="0"/>
-    </row>
-    <row r="65535" spans="1:18">
-      <c r="G65535" s="0"/>
-      <c r="H65535" s="0"/>
-      <c r="I65535" s="0"/>
-      <c r="J65535" s="0"/>
-      <c r="K65535" s="0"/>
-      <c r="L65535" s="0"/>
-      <c r="M65535" s="0"/>
-      <c r="P65535" s="0"/>
-    </row>
-    <row r="1048576" spans="1:18">
-      <c r="B1048576" s="0"/>
-      <c r="G1048576" s="0"/>
-      <c r="H1048576" s="0"/>
-      <c r="I1048576" s="0"/>
-      <c r="J1048576" s="0"/>
-      <c r="K1048576" s="0"/>
-      <c r="L1048576" s="0"/>
-      <c r="M1048576" s="0"/>
-      <c r="P1048576" s="0"/>
-    </row>
+    <row r="14" spans="1:18" ht="13.5"/>
+    <row r="15" spans="1:18" ht="13.5"/>
+    <row r="16" spans="1:18" ht="13.5"/>
+    <row r="17" spans="1:18" ht="13.5"/>
+    <row r="18" spans="1:18" ht="13.5"/>
+    <row r="19" spans="1:18" ht="13.5"/>
+    <row r="20" spans="1:18" ht="13.5"/>
+    <row r="21" spans="1:18" ht="13.5"/>
+    <row r="22" spans="1:18" ht="13.5"/>
+    <row r="23" spans="1:18" ht="13.5"/>
+    <row r="24" spans="1:18" ht="13.5"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
